--- a/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD432D41-A2F4-4153-9E70-514C88C0A4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48693144-D8CE-4285-B5E8-63D08B80970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B5FE31C-848B-44DF-B8F9-5CEA0899B3D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1274820E-3F0A-47A7-9492-EAB75B034890}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>77,43%</t>
   </si>
   <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>71,96%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>71,54%</t>
   </si>
   <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>34,7%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>72,41%</t>
   </si>
   <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>70,26%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>70,23%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD80CF4-3532-4D05-9F7E-D927803E10C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FCAAB-0F1A-49CC-8AFE-D95CF52AA3F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1313,7 +1313,7 @@
         <v>358</v>
       </c>
       <c r="D10" s="7">
-        <v>383066</v>
+        <v>383065</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1415,7 +1415,7 @@
         <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>535482</v>
+        <v>535481</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1963,7 @@
         <v>5332</v>
       </c>
       <c r="N22" s="7">
-        <v>4616118</v>
+        <v>4616117</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -1999,7 +1999,7 @@
         <v>1615</v>
       </c>
       <c r="I23" s="7">
-        <v>1056669</v>
+        <v>1056670</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -2050,7 +2050,7 @@
         <v>4812</v>
       </c>
       <c r="I24" s="7">
-        <v>3439724</v>
+        <v>3439725</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2065,7 @@
         <v>7883</v>
       </c>
       <c r="N24" s="7">
-        <v>6544519</v>
+        <v>6544518</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48693144-D8CE-4285-B5E8-63D08B80970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74CE9A5-684A-43C5-8C7C-9DDFB25B23FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1274820E-3F0A-47A7-9492-EAB75B034890}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7754A3EC-93D1-4FBC-93EF-A0E380B04BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FCAAB-0F1A-49CC-8AFE-D95CF52AA3F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C756BB9-3D72-4440-BDBA-D8B51194B918}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74CE9A5-684A-43C5-8C7C-9DDFB25B23FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7385E2A4-7D43-4C5B-BE19-398F119A33CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7754A3EC-93D1-4FBC-93EF-A0E380B04BD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FADAC50C-19EA-4BF5-B0BB-333A59BB4646}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>77,43%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>71,96%</t>
   </si>
   <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>71,54%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>34,7%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>72,41%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>70,26%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>70,23%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C756BB9-3D72-4440-BDBA-D8B51194B918}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED585DDF-A13D-455A-9671-F5320CBC8767}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1313,7 +1313,7 @@
         <v>358</v>
       </c>
       <c r="D10" s="7">
-        <v>383065</v>
+        <v>383066</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1415,7 +1415,7 @@
         <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>535481</v>
+        <v>535482</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1963,7 @@
         <v>5332</v>
       </c>
       <c r="N22" s="7">
-        <v>4616117</v>
+        <v>4616118</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -1999,7 +1999,7 @@
         <v>1615</v>
       </c>
       <c r="I23" s="7">
-        <v>1056670</v>
+        <v>1056669</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -2050,7 +2050,7 @@
         <v>4812</v>
       </c>
       <c r="I24" s="7">
-        <v>3439725</v>
+        <v>3439724</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2065,7 @@
         <v>7883</v>
       </c>
       <c r="N24" s="7">
-        <v>6544518</v>
+        <v>6544519</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7385E2A4-7D43-4C5B-BE19-398F119A33CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31D1B1B-28EF-44B2-9854-09D13783369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FADAC50C-19EA-4BF5-B0BB-333A59BB4646}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FCD557AA-7DF3-4943-9B82-E2217D22D5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -65,409 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED585DDF-A13D-455A-9671-F5320CBC8767}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C568ED-9F80-4891-80BA-94B5D0AAD32E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1042,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>257340</v>
+        <v>276828</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1057,7 @@
         <v>137</v>
       </c>
       <c r="I4" s="7">
-        <v>239220</v>
+        <v>208810</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1072,7 @@
         <v>250</v>
       </c>
       <c r="N4" s="7">
-        <v>496561</v>
+        <v>485638</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>75013</v>
+        <v>79311</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1108,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>74105</v>
+        <v>65454</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="N5" s="7">
-        <v>149118</v>
+        <v>144765</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1144,7 @@
         <v>151</v>
       </c>
       <c r="D6" s="7">
-        <v>332353</v>
+        <v>356139</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1159,7 @@
         <v>184</v>
       </c>
       <c r="I6" s="7">
-        <v>313325</v>
+        <v>274264</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1174,7 @@
         <v>335</v>
       </c>
       <c r="N6" s="7">
-        <v>645679</v>
+        <v>630403</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1197,7 @@
         <v>198</v>
       </c>
       <c r="D7" s="7">
-        <v>282211</v>
+        <v>278646</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,37 +1206,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
       </c>
       <c r="I7" s="7">
-        <v>313156</v>
+        <v>285738</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>484</v>
       </c>
       <c r="N7" s="7">
-        <v>595367</v>
+        <v>564385</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,46 +1248,46 @@
         <v>81</v>
       </c>
       <c r="D8" s="7">
-        <v>109963</v>
+        <v>111540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
       </c>
       <c r="I8" s="7">
-        <v>148649</v>
+        <v>193442</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>216</v>
       </c>
       <c r="N8" s="7">
-        <v>258612</v>
+        <v>304982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,7 +1299,7 @@
         <v>279</v>
       </c>
       <c r="D9" s="7">
-        <v>392174</v>
+        <v>390186</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1314,7 @@
         <v>421</v>
       </c>
       <c r="I9" s="7">
-        <v>461805</v>
+        <v>479180</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1329,7 @@
         <v>700</v>
       </c>
       <c r="N9" s="7">
-        <v>853979</v>
+        <v>869367</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1304,7 +1343,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1313,46 +1352,46 @@
         <v>358</v>
       </c>
       <c r="D10" s="7">
-        <v>383066</v>
+        <v>365218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>500</v>
       </c>
       <c r="I10" s="7">
-        <v>358651</v>
+        <v>331675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
       </c>
       <c r="N10" s="7">
-        <v>741716</v>
+        <v>696893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,46 +1403,46 @@
         <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>152416</v>
+        <v>149524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>295</v>
       </c>
       <c r="I11" s="7">
-        <v>190581</v>
+        <v>179691</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>452</v>
       </c>
       <c r="N11" s="7">
-        <v>342997</v>
+        <v>329215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,7 +1454,7 @@
         <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>535482</v>
+        <v>514742</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1469,7 @@
         <v>795</v>
       </c>
       <c r="I12" s="7">
-        <v>549232</v>
+        <v>511366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1484,7 @@
         <v>1310</v>
       </c>
       <c r="N12" s="7">
-        <v>1084713</v>
+        <v>1026108</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1468,46 +1507,46 @@
         <v>420</v>
       </c>
       <c r="D13" s="7">
-        <v>487933</v>
+        <v>657480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>672</v>
       </c>
       <c r="I13" s="7">
-        <v>437905</v>
+        <v>402259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1092</v>
       </c>
       <c r="N13" s="7">
-        <v>925838</v>
+        <v>1059739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,46 +1558,46 @@
         <v>194</v>
       </c>
       <c r="D14" s="7">
-        <v>185920</v>
+        <v>183498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
       </c>
       <c r="I14" s="7">
-        <v>248737</v>
+        <v>231324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>590</v>
       </c>
       <c r="N14" s="7">
-        <v>434657</v>
+        <v>414822</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1609,7 @@
         <v>614</v>
       </c>
       <c r="D15" s="7">
-        <v>673853</v>
+        <v>840978</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1624,7 @@
         <v>1068</v>
       </c>
       <c r="I15" s="7">
-        <v>686642</v>
+        <v>633583</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1639,7 @@
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1360495</v>
+        <v>1474561</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1623,46 +1662,46 @@
         <v>422</v>
       </c>
       <c r="D16" s="7">
-        <v>393955</v>
+        <v>365777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>631</v>
       </c>
       <c r="I16" s="7">
-        <v>391411</v>
+        <v>357419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>1053</v>
       </c>
       <c r="N16" s="7">
-        <v>785366</v>
+        <v>723196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1713,46 @@
         <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>166738</v>
+        <v>159116</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>284</v>
       </c>
       <c r="I17" s="7">
-        <v>153288</v>
+        <v>142562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>481</v>
       </c>
       <c r="N17" s="7">
-        <v>320026</v>
+        <v>301678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1764,7 @@
         <v>619</v>
       </c>
       <c r="D18" s="7">
-        <v>560693</v>
+        <v>524893</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1779,7 @@
         <v>915</v>
       </c>
       <c r="I18" s="7">
-        <v>544699</v>
+        <v>499981</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1794,7 @@
         <v>1534</v>
       </c>
       <c r="N18" s="7">
-        <v>1105392</v>
+        <v>1024874</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>624</v>
+        <v>355</v>
       </c>
       <c r="D19" s="7">
-        <v>428557</v>
+        <v>228203</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="7">
+        <v>528</v>
+      </c>
+      <c r="I19" s="7">
+        <v>462934</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>883</v>
+      </c>
+      <c r="N19" s="7">
+        <v>691137</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>971</v>
-      </c>
-      <c r="I19" s="7">
-        <v>642713</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1595</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1071270</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>181682</v>
+        <v>104478</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7">
+        <v>221</v>
+      </c>
+      <c r="I20" s="7">
+        <v>106856</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>381</v>
+      </c>
+      <c r="N20" s="7">
+        <v>211334</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>458</v>
-      </c>
-      <c r="I20" s="7">
-        <v>241309</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>727</v>
-      </c>
-      <c r="N20" s="7">
-        <v>422991</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>893</v>
+        <v>515</v>
       </c>
       <c r="D21" s="7">
-        <v>610239</v>
+        <v>332681</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1429</v>
+        <v>749</v>
       </c>
       <c r="I21" s="7">
-        <v>884022</v>
+        <v>569790</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2322</v>
+        <v>1264</v>
       </c>
       <c r="N21" s="7">
-        <v>1494261</v>
+        <v>902471</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1963,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2135</v>
+        <v>269</v>
       </c>
       <c r="D22" s="7">
-        <v>2233063</v>
+        <v>168844</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
+        <v>443</v>
+      </c>
+      <c r="I22" s="7">
+        <v>222322</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>3197</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2383055</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>712</v>
+      </c>
+      <c r="N22" s="7">
+        <v>391167</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>5332</v>
-      </c>
-      <c r="N22" s="7">
-        <v>4616118</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2020,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>936</v>
+        <v>109</v>
       </c>
       <c r="D23" s="7">
-        <v>871731</v>
+        <v>67950</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="7">
+        <v>237</v>
+      </c>
+      <c r="I23" s="7">
+        <v>112270</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>1615</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1056669</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>346</v>
+      </c>
+      <c r="N23" s="7">
+        <v>180219</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2551</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1928401</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>378</v>
+      </c>
+      <c r="D24" s="7">
+        <v>236794</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>680</v>
+      </c>
+      <c r="I24" s="7">
+        <v>334592</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1058</v>
+      </c>
+      <c r="N24" s="7">
+        <v>571386</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2135</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2340996</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3197</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2271157</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5332</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4612153</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>936</v>
+      </c>
+      <c r="D26" s="7">
+        <v>855417</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1615</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1031599</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2551</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1887016</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3071</v>
       </c>
-      <c r="D24" s="7">
-        <v>3104794</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3196413</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4812</v>
       </c>
-      <c r="I24" s="7">
-        <v>3439724</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3302756</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>7883</v>
       </c>
-      <c r="N24" s="7">
-        <v>6544519</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6499169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
